--- a/SAP_Success_Factors_AI/Default.xlsx
+++ b/SAP_Success_Factors_AI/Default.xlsx
@@ -538,7 +538,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>

--- a/SAP_Success_Factors_AI/Default.xlsx
+++ b/SAP_Success_Factors_AI/Default.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>United States</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>partRioDC8</t>
+  </si>
+  <si>
+    <t>FullName</t>
   </si>
   <si>
     <t>URL</t>
@@ -535,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -549,12 +552,13 @@
     <col min="4" max="4" width="15.75390625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.10546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.97265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.41796875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
       <c t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c t="s">
         <v>2</v>
@@ -563,13 +567,16 @@
         <v>6</v>
       </c>
       <c t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s">
         <v>1</v>
       </c>
       <c t="s">
         <v>5</v>
+      </c>
+      <c t="s">
+        <v>9</v>
       </c>
     </row>
     <row>
@@ -588,9 +595,10 @@
       <c s="1">
         <v>1234567890</v>
       </c>
-      <c s="3" t="s">
+      <c s="1" t="s">
         <v>0</v>
       </c>
+      <c s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SAP_Success_Factors_AI/Default.xlsx
+++ b/SAP_Success_Factors_AI/Default.xlsx
@@ -541,7 +541,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
